--- a/Luban/MiniTemplate/Datas/soundConfig.xlsx
+++ b/Luban/MiniTemplate/Datas/soundConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
   <si>
     <t>##var</t>
   </si>
@@ -44,6 +44,36 @@
     <t>CoinMp3</t>
   </si>
   <si>
+    <t>bossshowMP3</t>
+  </si>
+  <si>
+    <t>failMP3</t>
+  </si>
+  <si>
+    <t>winMP3</t>
+  </si>
+  <si>
+    <t>akMP3</t>
+  </si>
+  <si>
+    <t>buffMP3</t>
+  </si>
+  <si>
+    <t>debuffMP3</t>
+  </si>
+  <si>
+    <t>monstershowMP3</t>
+  </si>
+  <si>
+    <t>monstersdieMP3</t>
+  </si>
+  <si>
+    <t>boxopenMP3</t>
+  </si>
+  <si>
+    <t>buttonMP3</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -56,15 +86,45 @@
     <t>##</t>
   </si>
   <si>
-    <t>主界面背景音乐</t>
-  </si>
-  <si>
-    <t>战斗界面背景音乐</t>
+    <t>主界面背景音乐（循环播放）</t>
+  </si>
+  <si>
+    <t>战斗界面背景音乐（循环播放）</t>
   </si>
   <si>
     <t>金币掉落音效</t>
   </si>
   <si>
+    <t>BOS生成时播放</t>
+  </si>
+  <si>
+    <t>游戏失败时播放</t>
+  </si>
+  <si>
+    <t>游戏胜利时播放</t>
+  </si>
+  <si>
+    <t>武器开枪时播放</t>
+  </si>
+  <si>
+    <t>过BUFF门时播放</t>
+  </si>
+  <si>
+    <t>过DEBUFF门时播放</t>
+  </si>
+  <si>
+    <t>精英怪出现时播放一次</t>
+  </si>
+  <si>
+    <t>精英怪死亡时播放一次</t>
+  </si>
+  <si>
+    <t>打爆宝箱时播放一次</t>
+  </si>
+  <si>
+    <t>玩家点击所有按钮时播放</t>
+  </si>
+  <si>
     <t>beijing</t>
   </si>
   <si>
@@ -72,6 +132,36 @@
   </si>
   <si>
     <t>coin</t>
+  </si>
+  <si>
+    <t>bossshow</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>win</t>
+  </si>
+  <si>
+    <t>ak</t>
+  </si>
+  <si>
+    <t>buff</t>
+  </si>
+  <si>
+    <t>debuff</t>
+  </si>
+  <si>
+    <t>monstershow</t>
+  </si>
+  <si>
+    <t>monstersdie</t>
+  </si>
+  <si>
+    <t>boxopen</t>
+  </si>
+  <si>
+    <t>button</t>
   </si>
 </sst>
 </file>
@@ -1062,19 +1152,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
-    <col min="3" max="4" width="21.0833333333333" customWidth="1"/>
-    <col min="5" max="5" width="14.8333333333333" customWidth="1"/>
+    <col min="3" max="3" width="25.625" customWidth="1"/>
+    <col min="4" max="4" width="26.5833333333333" customWidth="1"/>
+    <col min="5" max="5" width="20.2083333333333" customWidth="1"/>
+    <col min="6" max="6" width="17.3333333333333" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="15.3333333333333" customWidth="1"/>
+    <col min="9" max="9" width="17.0833333333333" customWidth="1"/>
+    <col min="10" max="10" width="15.0833333333333" customWidth="1"/>
+    <col min="11" max="11" width="16.4583333333333" customWidth="1"/>
+    <col min="12" max="12" width="20.0833333333333" customWidth="1"/>
+    <col min="13" max="13" width="22.0833333333333" customWidth="1"/>
+    <col min="14" max="14" width="20.875" customWidth="1"/>
+    <col min="15" max="15" width="22.2083333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1090,51 +1191,171 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>7</v>
+        <v>17</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>21</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:15">
       <c r="A4" s="1"/>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>34</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Luban/MiniTemplate/Datas/soundConfig.xlsx
+++ b/Luban/MiniTemplate/Datas/soundConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
   <si>
     <t>##var</t>
   </si>
@@ -74,6 +74,9 @@
     <t>buttonMP3</t>
   </si>
   <si>
+    <t>bulletjammingMP3</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -125,6 +128,9 @@
     <t>玩家点击所有按钮时播放</t>
   </si>
   <si>
+    <t>没子弹时每0.25秒播放一次</t>
+  </si>
+  <si>
     <t>beijing</t>
   </si>
   <si>
@@ -162,6 +168,9 @@
   </si>
   <si>
     <t>button</t>
+  </si>
+  <si>
+    <t>bulletjamming</t>
   </si>
 </sst>
 </file>
@@ -877,7 +886,7 @@
 <file path=xl/woinfos.xml><?xml version="1.0" encoding="utf-8"?>
 <woInfos xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookInfo cellCmpFml="0">
-    <open main="41" threadCnt="1"/>
+    <open main="49" threadCnt="1"/>
     <sheetInfos>
       <sheetInfo cellCmpFml="0" sheetStid="1">
         <open threadCnt="1"/>
@@ -1152,7 +1161,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M3" sqref="M3"/>
@@ -1173,9 +1182,10 @@
     <col min="13" max="13" width="22.0833333333333" customWidth="1"/>
     <col min="14" max="14" width="20.875" customWidth="1"/>
     <col min="15" max="15" width="22.2083333333333" customWidth="1"/>
+    <col min="16" max="16" width="24.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1221,141 +1231,153 @@
       <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:16">
       <c r="A4" s="1"/>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
